--- a/biology/Botanique/Oldenlandia_verticillata/Oldenlandia_verticillata.xlsx
+++ b/biology/Botanique/Oldenlandia_verticillata/Oldenlandia_verticillata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oldenlandia verticillata (synonyme : Hedyotis verticillata) est une espèce de plantes dicotylédones de la famille des Rubiaceae, originaire d'Asie du Sud-Est.
-On a isolé à partir des feuilles de cette plante un composé chimique, la kaempféritrine, qui est un hétéroside du kaempférol[2].
-Cette espèce est devenue une mauvaise herbe importante, notamment dans les plantations de palmiers à huile de Malaisie, dans lesquelles ont été signalées des populations présentant des cas de résistance multiple à des herbicides (paraquat et glyphosate)[3].
+On a isolé à partir des feuilles de cette plante un composé chimique, la kaempféritrine, qui est un hétéroside du kaempférol.
+Cette espèce est devenue une mauvaise herbe importante, notamment dans les plantations de palmiers à huile de Malaisie, dans lesquelles ont été signalées des populations présentant des cas de résistance multiple à des herbicides (paraquat et glyphosate).
 </t>
         </is>
       </c>
@@ -514,15 +526,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oldenlandia verticillata est une plante herbacée annuelle ou vivace, très ramifiée, à port étalé, atteignant 30 cm de haut environ. Le système racinaire est constitué d'une robuste racine pivotante[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oldenlandia verticillata est une plante herbacée annuelle ou vivace, très ramifiée, à port étalé, atteignant 30 cm de haut environ. Le système racinaire est constitué d'une robuste racine pivotante.
 Les tiges, aplaties, à quatre angles et généralement 2 sillons, sont plus ou moins hispiduleuses.
 Les feuilles, sessiles ou à pétiole de moins de 2 mm, sont plus ou moins glabrescentes.
-Le limbe, qui devient papyracé ou finement parcheminé en séchant, est elliptique ou linéaire-lancéolé, et mesure de 2,5 à 6 cm de long sur 0,3 à 2 cm de large[5].
+Le limbe, qui devient papyracé ou finement parcheminé en séchant, est elliptique ou linéaire-lancéolé, et mesure de 2,5 à 6 cm de long sur 0,3 à 2 cm de large.
 Les inflorescences sont des glomérules, axillaires, de 5 à 10 mm de diamètre, à nombreuses fleurs.
 Celles-ci, sessiles à subsessiles, ont une corolle blanche, en forme d'entonnoir, avec un tube d'environ 2 mm et des lobes lancéolés de 1,8 à 2 mm.
-Les fruits sont des capsules loculicides, ovoides, de 2 à 3 mm de long sur 1,5 à 2 mm de large. Ils renferment de nombreuses graines brun clair, anguleuses[5].
+Les fruits sont des capsules loculicides, ovoides, de 2 à 3 mm de long sur 1,5 à 2 mm de large. Ils renferment de nombreuses graines brun clair, anguleuses.
 La floraison et la fructification ont lieu de mars à novembre.
 </t>
         </is>
@@ -552,13 +566,15 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de  s'étend essentiellement en Asie[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de  s'étend essentiellement en Asie :
 Asie tempérée : Chine (Sud-Est, Haïnan), Extrême-Orient (Kazan-Retto, Nansei-Shoto, Taïwan) ;
 Asie tropicale : sous-continent indien (Assam, Bangladesh, Himalaya oriental, Inde, Népal),  péninsule indochinoise (Myanmar, îles Nicobar, Thaïlande, Vietnam), Malesia (Bornéo, Java, Malaya, Moluques, Philippines, Sulawesi, Sumatra) ;
 région du Pacifique : îles Carolines, îles Gilbert.
-Cette espèce préfère les endroits ensoleillés ou légèrement ombragés, dans des stations sèches, peu fertiles. On la rencontre dans les anciennes clairières, les forêts de teck et les fourrés, à des altitudes allant jusqu'à 1600 mètres[4].
+Cette espèce préfère les endroits ensoleillés ou légèrement ombragés, dans des stations sèches, peu fertiles. On la rencontre dans les anciennes clairières, les forêts de teck et les fourrés, à des altitudes allant jusqu'à 1600 mètres.
 </t>
         </is>
       </c>
@@ -589,8 +605,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Catalogue of Life                                   (29 février 2016)[7] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalogue of Life                                   (29 février 2016) :
 Hedyotis crassifolia Blume, nom. illeg.,
 Hedyotis hispida Retz.,
 Hedyotis hispida Roth, nom. illeg.,
@@ -602,9 +623,7 @@
 Oldenlandia hispida (Retz.) Lam.,
 Scleromitrion crassifolium Miq.,
 Scleromitrion hispidum (Retz.) Korth.
-Liste des variétés
-Selon Tropicos                                           (29 février 2016)[8] :
-variété Oldenlandia verticillata var. trichocarpa Bremek.</t>
+</t>
         </is>
       </c>
     </row>
@@ -629,12 +648,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (29 février 2016) :
+variété Oldenlandia verticillata var. trichocarpa Bremek.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oldenlandia_verticillata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oldenlandia_verticillata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la péninsule malaise et en Inde, Oldenlandia verticillata est utilisée comme plante médicinale. Les parties aériennes servent à préparer des cataplasmes pour soigner les maux de tête et, chez les petits enfants, les maux d'estomac. Une décoction de la plante, buvable, est employée contre la dysenterie[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la péninsule malaise et en Inde, Oldenlandia verticillata est utilisée comme plante médicinale. Les parties aériennes servent à préparer des cataplasmes pour soigner les maux de tête et, chez les petits enfants, les maux d'estomac. Une décoction de la plante, buvable, est employée contre la dysenterie.
 </t>
         </is>
       </c>
